--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="35">
   <si>
     <t>файл</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>концентрация электронов (10^15 см^-3)</t>
+  </si>
+  <si>
+    <t>давление (Торр)</t>
+  </si>
+  <si>
+    <t>Мах</t>
   </si>
 </sst>
 </file>
@@ -148,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +185,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -368,44 +380,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,41 +564,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,663 +859,1010 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>43882</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>43851</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="8">
         <v>805.39300000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="9">
+        <v>20</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="1">
         <v>487.99900000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="13">
+        <v>25</v>
+      </c>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="39"/>
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="1">
         <v>649.73099999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="1" t="s">
+      <c r="F4" s="13">
+        <v>27</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="13">
+        <v>17</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="1">
         <v>457.94799999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="1" t="s">
+      <c r="F6" s="13">
+        <v>28</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13">
+        <v>31</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="13">
+        <v>33</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13">
+        <v>33</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13">
+        <v>24</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="1" t="s">
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="13">
+        <v>27</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="1">
         <v>393.50799999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="1" t="s">
+      <c r="F12" s="13">
+        <v>30</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="1">
         <v>862.86199999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="1" t="s">
+      <c r="F13" s="13">
+        <v>33</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="13">
+        <v>7</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="13">
+        <v>10</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="13">
+        <v>12</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>3.4510000000000001</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="13">
+        <v>40</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>2.847</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>3.1</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="13">
+        <v>10</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="1" t="s">
+      <c r="E19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="13">
+        <v>14</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>3.5470000000000002</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="13">
+        <v>18</v>
+      </c>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>5.1029999999999998</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="1" t="s">
+      <c r="D21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="13">
+        <v>26</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>3.8929999999999998</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="1" t="s">
+      <c r="D22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="13">
+        <v>40</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>3.94</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="1" t="s">
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="13">
+        <v>26</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>4.3410000000000002</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>2.8</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="1" t="s">
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="13">
+        <v>27</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>3.9910000000000001</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="13">
+        <v>30</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="12">
         <v>4.2530000000000001</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="12">
         <v>2.5</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="E26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="11">
+        <v>35</v>
+      </c>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="41">
         <v>44252</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>3.1539999999999999</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="D27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="8">
         <v>958.56799999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="4" t="s">
+      <c r="F27" s="9">
+        <v>12</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
         <v>2.8</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="1">
         <v>1082.8340000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="4" t="s">
+      <c r="F28" s="13">
+        <v>23</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>3.2410000000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>2.8</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="4" t="s">
+      <c r="E29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13">
+        <v>23</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>4.4550000000000001</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>3.4</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="1">
         <v>1054.5160000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="4" t="s">
+      <c r="F30" s="3">
+        <v>25</v>
+      </c>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>2.9540000000000002</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>3.2</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="4" t="s">
+      <c r="E31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="13">
+        <v>35</v>
+      </c>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>3.0310000000000001</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="13">
+        <v>35</v>
+      </c>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>3.052</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>0.9</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="4" t="s">
+      <c r="E33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45</v>
+      </c>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>3.1019999999999999</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="4" t="s">
+      <c r="E34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="13">
+        <v>45</v>
+      </c>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>3.3929999999999998</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>3.1</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="4" t="s">
+      <c r="E35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="13">
+        <v>55</v>
+      </c>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="12">
         <v>3.407</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="12">
         <v>2.5</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="4" t="s">
+      <c r="E36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="11">
+        <v>55</v>
+      </c>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="43"/>
+      <c r="B37" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="4" t="s">
+      <c r="C37" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="1">
         <v>3.2</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="4" t="s">
+      <c r="E38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="2">
+      <c r="C39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="1">
         <v>2.4</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="4" t="s">
+      <c r="E39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="24">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="43"/>
+      <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="4" t="s">
+      <c r="C40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="24">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="43"/>
+      <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="4" t="s">
+      <c r="C41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="24">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="43"/>
+      <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>5.6970000000000001</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>2.8</v>
       </c>
-      <c r="E42" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
+      <c r="E42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="24">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44"/>
+      <c r="B43" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>27</v>
+      <c r="C43" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="41">
+        <v>44273</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="28">
+        <v>545</v>
+      </c>
+      <c r="F44" s="28">
+        <v>22</v>
+      </c>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="45"/>
+      <c r="B46" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="26">
+        <v>462</v>
+      </c>
+      <c r="F46" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G46" s="27"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+      <c r="B47" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="32">
+        <v>558</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="39"/>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="25">
+        <v>654</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="24">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="39"/>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="25">
+        <v>702</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="24">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="39"/>
+      <c r="B50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="25">
+        <v>480</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="39"/>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="25">
+        <v>582</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="24">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40"/>
+      <c r="B52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="27">
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A27:A43"/>
+    <mergeCell ref="A44:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
   <si>
     <t>файл</t>
   </si>
@@ -125,10 +125,10 @@
     <t>концентрация электронов (10^15 см^-3)</t>
   </si>
   <si>
-    <t>давление (Торр)</t>
-  </si>
-  <si>
     <t>Мах</t>
+  </si>
+  <si>
+    <t>давление (дел)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +191,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -432,11 +438,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,6 +632,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +1015,10 @@
         <v>31</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,29 +1976,236 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="C52" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="27">
+      <c r="E52" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51">
         <v>3.22</v>
       </c>
     </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="41">
+        <v>44280</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57">
+        <v>877</v>
+      </c>
+      <c r="F53" s="57">
+        <v>24</v>
+      </c>
+      <c r="G53" s="58"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="45"/>
+      <c r="B54" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="59"/>
+      <c r="E54" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="39"/>
+      <c r="B56" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="62"/>
+      <c r="G56" s="64">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="45"/>
+      <c r="B57" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57">
+        <v>538</v>
+      </c>
+      <c r="F57" s="57">
+        <v>5</v>
+      </c>
+      <c r="G57" s="58"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="39"/>
+      <c r="B58" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="59">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D58" s="59"/>
+      <c r="E58" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="59"/>
+      <c r="G58" s="65">
+        <v>3.742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="13"/>
+      <c r="E59" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="66">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="66">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13">
+        <v>1082</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="66">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="39"/>
+      <c r="B62" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="13">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="66">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="39"/>
+      <c r="B63" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="66">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="40"/>
+      <c r="B64" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11">
+        <v>908</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="67">
+        <v>3.7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A27:A43"/>
     <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A53:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="41">
   <si>
     <t>файл</t>
   </si>
@@ -129,13 +130,31 @@
   </si>
   <si>
     <t>давление (дел)</t>
+  </si>
+  <si>
+    <t>1.629</t>
+  </si>
+  <si>
+    <t>Приведенное эл поле (Тд)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Эксперимент</t>
+  </si>
+  <si>
+    <t>Погрешность</t>
+  </si>
+  <si>
+    <t>Рассчитанное</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +171,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -503,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,6 +636,88 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,72 +745,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -983,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,6 +1053,10 @@
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1022,7 +1083,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="66">
         <v>43851</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1043,7 +1104,7 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1123,7 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1142,7 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1161,7 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1180,7 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1199,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +1218,7 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1237,7 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1256,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1275,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
@@ -1233,7 +1294,7 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1313,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
@@ -1271,7 +1332,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1290,7 +1351,7 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -1309,12 +1370,12 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>3.4510000000000001</v>
+        <v>1.155</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -1328,15 +1389,15 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>2.847</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>27</v>
@@ -1347,7 +1408,7 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
@@ -1366,12 +1427,12 @@
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>3.5470000000000002</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
@@ -1385,12 +1446,12 @@
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>5.1029999999999998</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
@@ -1404,12 +1465,12 @@
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>3.8929999999999998</v>
+        <v>1.131</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
@@ -1423,12 +1484,12 @@
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="1">
-        <v>3.94</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -1442,12 +1503,12 @@
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1">
-        <v>4.3410000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="D24" s="4">
         <v>2.8</v>
@@ -1461,12 +1522,12 @@
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="1">
-        <v>3.9910000000000001</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -1480,15 +1541,15 @@
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="12">
-        <v>4.2530000000000001</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="D26" s="12">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>27</v>
@@ -1499,14 +1560,14 @@
       <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
+      <c r="A27" s="69">
         <v>44252</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="8">
-        <v>3.1539999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>29</v>
@@ -1520,7 +1581,7 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="35" t="s">
         <v>3</v>
       </c>
@@ -1539,12 +1600,12 @@
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>3.2410000000000001</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="D29" s="1">
         <v>2.8</v>
@@ -1558,7 +1619,7 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="35" t="s">
         <v>5</v>
       </c>
@@ -1566,7 +1627,7 @@
         <v>4.4550000000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E30" s="1">
         <v>1054.5160000000001</v>
@@ -1577,12 +1638,12 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>2.9540000000000002</v>
+        <v>0.40699999999999997</v>
       </c>
       <c r="D31" s="1">
         <v>3.2</v>
@@ -1596,15 +1657,15 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>3.0310000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D32" s="1">
-        <v>1.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>27</v>
@@ -1614,16 +1675,16 @@
       </c>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
       <c r="B33" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1">
-        <v>3.052</v>
+        <v>0.496</v>
       </c>
       <c r="D33" s="1">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>27</v>
@@ -1633,16 +1694,16 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
       <c r="B34" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="1">
-        <v>3.1019999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>27</v>
@@ -1651,17 +1712,23 @@
         <v>45</v>
       </c>
       <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="I34" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
       <c r="B35" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>3.3929999999999998</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="D35" s="1">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>27</v>
@@ -1670,17 +1737,29 @@
         <v>55</v>
       </c>
       <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+      <c r="I35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="70"/>
       <c r="B36" s="36" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="12">
-        <v>3.407</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="D36" s="12">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>27</v>
@@ -1689,9 +1768,21 @@
         <v>55</v>
       </c>
       <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="I36" s="80">
+        <v>44252</v>
+      </c>
+      <c r="J36" s="81">
+        <f>AVERAGE(E27,E28,E30)</f>
+        <v>1031.9726666666668</v>
+      </c>
+      <c r="K36" s="81">
+        <f>(VAR(E27,E28,E30))^0.5</f>
+        <v>65.12803618514333</v>
+      </c>
+      <c r="L36" s="81"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="71"/>
       <c r="B37" s="30" t="s">
         <v>12</v>
       </c>
@@ -1708,9 +1799,21 @@
       <c r="G37" s="33">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="I37" s="80">
+        <v>44273</v>
+      </c>
+      <c r="J37" s="81">
+        <f>AVERAGE(E44,E46,E47:E51)</f>
+        <v>710.28571428571433</v>
+      </c>
+      <c r="K37" s="81">
+        <f>(VAR(E44,E46:E51))^0.5</f>
+        <v>83.717211065416166</v>
+      </c>
+      <c r="L37" s="81"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="71"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -1725,14 +1828,26 @@
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="I38" s="80">
+        <v>44280</v>
+      </c>
+      <c r="J38" s="81">
+        <f>AVERAGE(E53,E57,E61,E64)</f>
+        <v>851.25</v>
+      </c>
+      <c r="K38" s="81">
+        <f>(VAR(E53,E57,E61,E64))^0.5</f>
+        <v>227.48974335853768</v>
+      </c>
+      <c r="L38" s="81"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>29</v>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D39" s="1">
         <v>2.4</v>
@@ -1745,8 +1860,8 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="71"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -1764,8 +1879,8 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="71"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1783,16 +1898,16 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="71"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="1">
-        <v>5.6970000000000001</v>
+        <v>2.0649999999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>27</v>
@@ -1802,8 +1917,8 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="72"/>
       <c r="B43" s="19" t="s">
         <v>18</v>
       </c>
@@ -1821,8 +1936,8 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="69">
         <v>44273</v>
       </c>
       <c r="B44" s="34" t="s">
@@ -1835,20 +1950,20 @@
         <v>29</v>
       </c>
       <c r="E44" s="28">
-        <v>545</v>
+        <v>726</v>
       </c>
       <c r="F44" s="28">
         <v>22</v>
       </c>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="73"/>
       <c r="B45" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>2.9</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>29</v>
@@ -1861,8 +1976,8 @@
       </c>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="73"/>
       <c r="B46" s="36" t="s">
         <v>4</v>
       </c>
@@ -1873,15 +1988,15 @@
         <v>29</v>
       </c>
       <c r="E46" s="26">
-        <v>462</v>
+        <v>686</v>
       </c>
       <c r="F46" s="26">
         <v>1.5</v>
       </c>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="67"/>
       <c r="B47" s="30" t="s">
         <v>5</v>
       </c>
@@ -1892,15 +2007,15 @@
         <v>29</v>
       </c>
       <c r="E47" s="32">
-        <v>558</v>
+        <v>658</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="33">
         <v>4.54</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="67"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -1919,12 +2034,12 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>27</v>
+      <c r="C49" s="1">
+        <v>2.1389999999999998</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>29</v>
@@ -1938,7 +2053,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +2064,7 @@
         <v>29</v>
       </c>
       <c r="E50" s="25">
-        <v>480</v>
+        <v>656</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="24">
@@ -1957,7 +2072,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
@@ -1968,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="E51" s="25">
-        <v>582</v>
+        <v>890</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="24">
@@ -1976,70 +2091,72 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47" t="s">
+      <c r="A52" s="74"/>
+      <c r="B52" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="49" t="s">
+      <c r="C52" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51">
+      <c r="E52" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42">
         <v>3.22</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41">
+      <c r="A53" s="69">
         <v>44280</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57">
+      <c r="C53" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48">
         <v>877</v>
       </c>
-      <c r="F53" s="57">
+      <c r="F53" s="48">
         <v>24</v>
       </c>
-      <c r="G53" s="58"/>
+      <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="54" t="s">
+      <c r="A54" s="73"/>
+      <c r="B54" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59">
+      <c r="C54" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50">
         <v>3.36</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="52" t="s">
+      <c r="A55" s="73"/>
+      <c r="B55" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="13">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="61" t="s">
+      <c r="C55" s="60">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D55" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="E55" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="13"/>
@@ -2048,166 +2165,334 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="55" t="s">
+      <c r="A56" s="67"/>
+      <c r="B56" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="64">
+      <c r="C56" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="53"/>
+      <c r="G56" s="55">
         <v>3.44</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="56" t="s">
+      <c r="A57" s="73"/>
+      <c r="B57" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57">
+      <c r="C57" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48">
         <v>538</v>
       </c>
-      <c r="F57" s="57">
+      <c r="F57" s="48">
         <v>5</v>
       </c>
-      <c r="G57" s="58"/>
+      <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
-      <c r="B58" s="54" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="59">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="59"/>
-      <c r="G58" s="65">
+      <c r="C58" s="61">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D58" s="50">
+        <v>3.2</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="50"/>
+      <c r="G58" s="56">
         <v>3.742</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
-      <c r="B59" s="52" t="s">
+      <c r="A59" s="67"/>
+      <c r="B59" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="13"/>
-      <c r="E59" s="61" t="s">
+      <c r="E59" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="13"/>
-      <c r="G59" s="66">
+      <c r="G59" s="57">
         <v>2.91</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="39"/>
-      <c r="B60" s="52" t="s">
+      <c r="A60" s="67"/>
+      <c r="B60" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="13"/>
-      <c r="E60" s="61" t="s">
+      <c r="E60" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="13"/>
-      <c r="G60" s="66">
+      <c r="G60" s="57">
         <v>3.79</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="39"/>
-      <c r="B61" s="52" t="s">
+      <c r="A61" s="67"/>
+      <c r="B61" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="61" t="s">
-        <v>27</v>
+      <c r="C61" s="60">
+        <v>0.78900000000000003</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13">
         <v>1082</v>
       </c>
       <c r="F61" s="13"/>
-      <c r="G61" s="66">
+      <c r="G61" s="57">
         <v>3.7</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="39"/>
-      <c r="B62" s="52" t="s">
+      <c r="A62" s="67"/>
+      <c r="B62" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="13">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="61" t="s">
+      <c r="C62" s="60">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D62" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="E62" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="13"/>
-      <c r="G62" s="66">
+      <c r="G62" s="57">
         <v>3.7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="39"/>
-      <c r="B63" s="52" t="s">
+      <c r="A63" s="67"/>
+      <c r="B63" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="61" t="s">
+      <c r="C63" s="60">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D63" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="E63" s="52" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="13"/>
-      <c r="G63" s="66">
+      <c r="G63" s="57">
         <v>3.44</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="53" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="11">
-        <v>0.4</v>
+      <c r="C64" s="62">
+        <v>0.6</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
         <v>908</v>
       </c>
       <c r="F64" s="11"/>
-      <c r="G64" s="67">
+      <c r="G64" s="58">
         <v>3.7</v>
       </c>
     </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65"/>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="65"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="75"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="65"/>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="65"/>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="65"/>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="65"/>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="65"/>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="65"/>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="63"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="63"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="65"/>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="63"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="63"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="65"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="63"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="65"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="63"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="65"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="63"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="65"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="65"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="64"/>
+      <c r="D85" s="64"/>
+      <c r="E85" s="65"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="65"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A27:A43"/>
     <mergeCell ref="A44:A52"/>
     <mergeCell ref="A53:A64"/>
+    <mergeCell ref="I34:L34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="78">
+        <v>44252</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\сергей\Desktop\pavlik\msu\СПЕКТРЫ\Обработка всех прошлых спектров\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\Desktop\МГУ\msu\СПЕКТРЫ\Обработка всех прошлых спектров\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
   <si>
     <t>файл</t>
   </si>
@@ -718,48 +718,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1042,24 +1042,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" customWidth="1"/>
+    <col min="3" max="3" width="38.59765625" customWidth="1"/>
+    <col min="4" max="4" width="25.3984375" customWidth="1"/>
+    <col min="6" max="6" width="16.265625" customWidth="1"/>
+    <col min="9" max="9" width="17.73046875" customWidth="1"/>
+    <col min="10" max="10" width="18.1328125" customWidth="1"/>
+    <col min="11" max="11" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="17.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1082,8 +1082,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="66">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="71">
         <v>43851</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1103,8 +1103,8 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="72"/>
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1122,8 +1122,8 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="72"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1141,8 +1141,8 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="72"/>
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
@@ -1160,8 +1160,8 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="67"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="72"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1179,8 +1179,8 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="67"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="72"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
@@ -1198,8 +1198,8 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="72"/>
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
@@ -1217,8 +1217,8 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="72"/>
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1236,8 +1236,8 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="72"/>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -1255,8 +1255,8 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="72"/>
       <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
@@ -1274,8 +1274,8 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="72"/>
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
@@ -1285,16 +1285,16 @@
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1">
-        <v>393.50799999999998</v>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="13">
         <v>30</v>
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="72"/>
       <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
@@ -1305,15 +1305,15 @@
         <v>28</v>
       </c>
       <c r="E13" s="1">
-        <v>862.86199999999997</v>
+        <v>400</v>
       </c>
       <c r="F13" s="13">
         <v>33</v>
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="72"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
@@ -1331,8 +1331,8 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="72"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1350,8 +1350,8 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="72"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -1369,8 +1369,8 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="72"/>
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
@@ -1388,8 +1388,8 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="72"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
@@ -1407,8 +1407,8 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="72"/>
       <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
@@ -1426,8 +1426,8 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="72"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
@@ -1445,8 +1445,8 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="72"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
@@ -1464,8 +1464,8 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
@@ -1483,8 +1483,8 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="72"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
@@ -1502,8 +1502,8 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="72"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
@@ -1521,8 +1521,8 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="72"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
@@ -1540,8 +1540,8 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="73"/>
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1559,8 +1559,8 @@
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="74">
         <v>44252</v>
       </c>
       <c r="B27" s="34" t="s">
@@ -1580,8 +1580,8 @@
       </c>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="75"/>
       <c r="B28" s="35" t="s">
         <v>3</v>
       </c>
@@ -1599,8 +1599,8 @@
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="75"/>
       <c r="B29" s="35" t="s">
         <v>4</v>
       </c>
@@ -1618,8 +1618,8 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="75"/>
       <c r="B30" s="35" t="s">
         <v>5</v>
       </c>
@@ -1637,8 +1637,8 @@
       </c>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="75"/>
       <c r="B31" s="35" t="s">
         <v>6</v>
       </c>
@@ -1656,8 +1656,8 @@
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="75"/>
       <c r="B32" s="35" t="s">
         <v>7</v>
       </c>
@@ -1675,8 +1675,8 @@
       </c>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="75"/>
       <c r="B33" s="35" t="s">
         <v>8</v>
       </c>
@@ -1694,8 +1694,8 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="70"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="75"/>
       <c r="B34" s="35" t="s">
         <v>9</v>
       </c>
@@ -1712,15 +1712,15 @@
         <v>45</v>
       </c>
       <c r="G34" s="24"/>
-      <c r="I34" s="79" t="s">
+      <c r="I34" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="75"/>
       <c r="B35" s="35" t="s">
         <v>10</v>
       </c>
@@ -1750,8 +1750,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
+    <row r="36" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="75"/>
       <c r="B36" s="36" t="s">
         <v>11</v>
       </c>
@@ -1768,21 +1768,21 @@
         <v>55</v>
       </c>
       <c r="G36" s="27"/>
-      <c r="I36" s="80">
+      <c r="I36" s="69">
         <v>44252</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="70">
         <f>AVERAGE(E27,E28,E30)</f>
         <v>1031.9726666666668</v>
       </c>
-      <c r="K36" s="81">
+      <c r="K36" s="70">
         <f>(VAR(E27,E28,E30))^0.5</f>
         <v>65.12803618514333</v>
       </c>
-      <c r="L36" s="81"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
+      <c r="L36" s="70"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="76"/>
       <c r="B37" s="30" t="s">
         <v>12</v>
       </c>
@@ -1799,21 +1799,21 @@
       <c r="G37" s="33">
         <v>2.73</v>
       </c>
-      <c r="I37" s="80">
+      <c r="I37" s="69">
         <v>44273</v>
       </c>
-      <c r="J37" s="81">
+      <c r="J37" s="70">
         <f>AVERAGE(E44,E46,E47:E51)</f>
         <v>710.28571428571433</v>
       </c>
-      <c r="K37" s="81">
+      <c r="K37" s="70">
         <f>(VAR(E44,E46:E51))^0.5</f>
         <v>83.717211065416166</v>
       </c>
-      <c r="L37" s="81"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
+      <c r="L37" s="70"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" s="76"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -1828,21 +1828,21 @@
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="24"/>
-      <c r="I38" s="80">
+      <c r="I38" s="69">
         <v>44280</v>
       </c>
-      <c r="J38" s="81">
+      <c r="J38" s="70">
         <f>AVERAGE(E53,E57,E61,E64)</f>
         <v>851.25</v>
       </c>
-      <c r="K38" s="81">
+      <c r="K38" s="70">
         <f>(VAR(E53,E57,E61,E64))^0.5</f>
         <v>227.48974335853768</v>
       </c>
-      <c r="L38" s="81"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
+      <c r="L38" s="70"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" s="76"/>
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
@@ -1860,8 +1860,8 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" s="76"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -1879,8 +1879,8 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="76"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1898,8 +1898,8 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="76"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
@@ -1917,8 +1917,8 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="72"/>
+    <row r="43" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="77"/>
       <c r="B43" s="19" t="s">
         <v>18</v>
       </c>
@@ -1936,8 +1936,8 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69">
+    <row r="44" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="74">
         <v>44273</v>
       </c>
       <c r="B44" s="34" t="s">
@@ -1957,8 +1957,8 @@
       </c>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="73"/>
+    <row r="45" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A45" s="78"/>
       <c r="B45" s="35" t="s">
         <v>3</v>
       </c>
@@ -1976,8 +1976,8 @@
       </c>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="73"/>
+    <row r="46" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="78"/>
       <c r="B46" s="36" t="s">
         <v>4</v>
       </c>
@@ -1995,8 +1995,8 @@
       </c>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
+    <row r="47" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="72"/>
       <c r="B47" s="30" t="s">
         <v>5</v>
       </c>
@@ -2014,8 +2014,8 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="67"/>
+    <row r="48" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="72"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -2033,8 +2033,8 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
+    <row r="49" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="72"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
@@ -2052,8 +2052,8 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67"/>
+    <row r="50" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A50" s="72"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2071,8 +2071,8 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
+    <row r="51" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="72"/>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
@@ -2090,8 +2090,8 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="74"/>
+    <row r="52" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="79"/>
       <c r="B52" s="38" t="s">
         <v>10</v>
       </c>
@@ -2109,8 +2109,8 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="69">
+    <row r="53" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="74">
         <v>44280</v>
       </c>
       <c r="B53" s="47" t="s">
@@ -2128,8 +2128,8 @@
       </c>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="73"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="78"/>
       <c r="B54" s="45" t="s">
         <v>3</v>
       </c>
@@ -2145,8 +2145,8 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="78"/>
       <c r="B55" s="43" t="s">
         <v>4</v>
       </c>
@@ -2164,8 +2164,8 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
+    <row r="56" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="72"/>
       <c r="B56" s="46" t="s">
         <v>5</v>
       </c>
@@ -2181,8 +2181,8 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="73"/>
+    <row r="57" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="78"/>
       <c r="B57" s="47" t="s">
         <v>6</v>
       </c>
@@ -2198,8 +2198,8 @@
       </c>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" s="72"/>
       <c r="B58" s="45" t="s">
         <v>7</v>
       </c>
@@ -2217,8 +2217,8 @@
         <v>3.742</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" s="72"/>
       <c r="B59" s="43" t="s">
         <v>8</v>
       </c>
@@ -2234,8 +2234,8 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" s="72"/>
       <c r="B60" s="43" t="s">
         <v>9</v>
       </c>
@@ -2251,8 +2251,8 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" s="72"/>
       <c r="B61" s="43" t="s">
         <v>10</v>
       </c>
@@ -2268,8 +2268,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" s="72"/>
       <c r="B62" s="43" t="s">
         <v>11</v>
       </c>
@@ -2287,8 +2287,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" s="72"/>
       <c r="B63" s="43" t="s">
         <v>12</v>
       </c>
@@ -2306,8 +2306,8 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="68"/>
+    <row r="64" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A64" s="73"/>
       <c r="B64" s="44" t="s">
         <v>13</v>
       </c>
@@ -2323,112 +2323,112 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C66" s="65"/>
       <c r="D66" s="65"/>
       <c r="E66" s="65"/>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C67" s="63"/>
       <c r="D67" s="64"/>
       <c r="E67" s="65"/>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C68" s="63"/>
       <c r="D68" s="64"/>
       <c r="E68" s="65"/>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="75"/>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C69" s="66"/>
       <c r="D69" s="64"/>
       <c r="E69" s="65"/>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
       <c r="E70" s="65"/>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C71" s="63"/>
       <c r="D71" s="63"/>
       <c r="E71" s="65"/>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C72" s="64"/>
       <c r="D72" s="64"/>
       <c r="E72" s="65"/>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C73" s="64"/>
       <c r="D73" s="64"/>
       <c r="E73" s="65"/>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C74" s="64"/>
       <c r="D74" s="64"/>
       <c r="E74" s="65"/>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C75" s="64"/>
       <c r="D75" s="64"/>
       <c r="E75" s="65"/>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C76" s="63"/>
       <c r="D76" s="64"/>
       <c r="E76" s="65"/>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C77" s="63"/>
       <c r="D77" s="64"/>
       <c r="E77" s="65"/>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C78" s="63"/>
       <c r="D78" s="64"/>
       <c r="E78" s="65"/>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C79" s="63"/>
       <c r="D79" s="64"/>
       <c r="E79" s="65"/>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C80" s="63"/>
       <c r="D80" s="64"/>
       <c r="E80" s="65"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C81" s="63"/>
       <c r="D81" s="64"/>
       <c r="E81" s="65"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C82" s="63"/>
       <c r="D82" s="64"/>
       <c r="E82" s="65"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C83" s="63"/>
       <c r="D83" s="64"/>
       <c r="E83" s="65"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C84" s="64"/>
       <c r="D84" s="64"/>
       <c r="E84" s="65"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C85" s="64"/>
       <c r="D85" s="64"/>
       <c r="E85" s="65"/>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C86" s="64"/>
       <c r="D86" s="64"/>
       <c r="E86" s="65"/>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C87" s="65"/>
       <c r="D87" s="65"/>
       <c r="E87" s="65"/>
@@ -2454,38 +2454,38 @@
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="68">
         <v>44252</v>
       </c>
     </row>

--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Павел\Desktop\МГУ\msu\СПЕКТРЫ\Обработка всех прошлых спектров\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\сергей\Desktop\pavlik\msu\СПЕКТРЫ\Обработка всех прошлых спектров\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -132,9 +132,6 @@
     <t>давление (дел)</t>
   </si>
   <si>
-    <t>1.629</t>
-  </si>
-  <si>
     <t>Приведенное эл поле (Тд)</t>
   </si>
   <si>
@@ -148,13 +145,16 @@
   </si>
   <si>
     <t>Рассчитанное</t>
+  </si>
+  <si>
+    <t>0.529</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +171,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="8">
@@ -529,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,21 +705,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,6 +751,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,26 +1039,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E72" sqref="C67:E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" customWidth="1"/>
-    <col min="3" max="3" width="38.59765625" customWidth="1"/>
-    <col min="4" max="4" width="25.3984375" customWidth="1"/>
-    <col min="6" max="6" width="16.265625" customWidth="1"/>
-    <col min="9" max="9" width="17.73046875" customWidth="1"/>
-    <col min="10" max="10" width="18.1328125" customWidth="1"/>
-    <col min="11" max="11" width="14.3984375" customWidth="1"/>
-    <col min="12" max="12" width="17.265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="71">
         <v>43851</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="72"/>
       <c r="B3" s="15" t="s">
         <v>3</v>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="72"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="15" t="s">
         <v>5</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="72"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="72"/>
       <c r="B8" s="15" t="s">
         <v>8</v>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="72"/>
       <c r="B9" s="15" t="s">
         <v>9</v>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
       <c r="B10" s="15" t="s">
         <v>10</v>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
       <c r="B11" s="15" t="s">
         <v>11</v>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="15" t="s">
         <v>12</v>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
       <c r="B13" s="15" t="s">
         <v>13</v>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
       <c r="B17" s="15" t="s">
         <v>17</v>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="72"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
       <c r="B19" s="15" t="s">
         <v>19</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="72"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="72"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="72"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="72"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="72"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="72"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="73"/>
       <c r="B26" s="16" t="s">
         <v>26</v>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="74">
         <v>44252</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="75"/>
       <c r="B28" s="35" t="s">
         <v>3</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="75"/>
       <c r="B29" s="35" t="s">
         <v>4</v>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="75"/>
       <c r="B30" s="35" t="s">
         <v>5</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="75"/>
       <c r="B31" s="35" t="s">
         <v>6</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="75"/>
       <c r="B32" s="35" t="s">
         <v>7</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="75"/>
       <c r="B33" s="35" t="s">
         <v>8</v>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="75"/>
       <c r="B34" s="35" t="s">
         <v>9</v>
@@ -1713,13 +1713,13 @@
       </c>
       <c r="G34" s="24"/>
       <c r="I34" s="80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="80"/>
       <c r="K34" s="80"/>
       <c r="L34" s="80"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="75"/>
       <c r="B35" s="35" t="s">
         <v>10</v>
@@ -1738,19 +1738,19 @@
       </c>
       <c r="G35" s="24"/>
       <c r="I35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="K35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="L35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
       <c r="B36" s="36" t="s">
         <v>11</v>
@@ -1768,20 +1768,20 @@
         <v>55</v>
       </c>
       <c r="G36" s="27"/>
-      <c r="I36" s="69">
+      <c r="I36" s="67">
         <v>44252</v>
       </c>
-      <c r="J36" s="70">
+      <c r="J36" s="68">
         <f>AVERAGE(E27,E28,E30)</f>
         <v>1031.9726666666668</v>
       </c>
-      <c r="K36" s="70">
+      <c r="K36" s="68">
         <f>(VAR(E27,E28,E30))^0.5</f>
         <v>65.12803618514333</v>
       </c>
-      <c r="L36" s="70"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L36" s="68"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="76"/>
       <c r="B37" s="30" t="s">
         <v>12</v>
@@ -1799,20 +1799,20 @@
       <c r="G37" s="33">
         <v>2.73</v>
       </c>
-      <c r="I37" s="69">
+      <c r="I37" s="67">
         <v>44273</v>
       </c>
-      <c r="J37" s="70">
+      <c r="J37" s="68">
         <f>AVERAGE(E44,E46,E47:E51)</f>
         <v>710.28571428571433</v>
       </c>
-      <c r="K37" s="70">
+      <c r="K37" s="68">
         <f>(VAR(E44,E46:E51))^0.5</f>
         <v>83.717211065416166</v>
       </c>
-      <c r="L37" s="70"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L37" s="68"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="76"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
@@ -1828,26 +1828,26 @@
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="24"/>
-      <c r="I38" s="69">
+      <c r="I38" s="67">
         <v>44280</v>
       </c>
-      <c r="J38" s="70">
+      <c r="J38" s="68">
         <f>AVERAGE(E53,E57,E61,E64)</f>
         <v>851.25</v>
       </c>
-      <c r="K38" s="70">
+      <c r="K38" s="68">
         <f>(VAR(E53,E57,E61,E64))^0.5</f>
         <v>227.48974335853768</v>
       </c>
-      <c r="L38" s="70"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L38" s="68"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="76"/>
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1">
         <v>2.4</v>
@@ -1860,7 +1860,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="76"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
@@ -1879,7 +1879,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="76"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
@@ -1898,7 +1898,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="76"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
@@ -1917,7 +1917,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="77"/>
       <c r="B43" s="19" t="s">
         <v>18</v>
@@ -1936,7 +1936,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="74">
         <v>44273</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="78"/>
       <c r="B45" s="35" t="s">
         <v>3</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="78"/>
       <c r="B46" s="36" t="s">
         <v>4</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="72"/>
       <c r="B47" s="30" t="s">
         <v>5</v>
@@ -2014,7 +2014,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="72"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
@@ -2033,7 +2033,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="72"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
@@ -2052,7 +2052,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="72"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -2071,7 +2071,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="72"/>
       <c r="B51" s="3" t="s">
         <v>9</v>
@@ -2090,7 +2090,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="79"/>
       <c r="B52" s="38" t="s">
         <v>10</v>
@@ -2109,7 +2109,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="74">
         <v>44280</v>
       </c>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="78"/>
       <c r="B54" s="45" t="s">
         <v>3</v>
@@ -2145,7 +2145,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="78"/>
       <c r="B55" s="43" t="s">
         <v>4</v>
@@ -2164,7 +2164,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="72"/>
       <c r="B56" s="46" t="s">
         <v>5</v>
@@ -2181,7 +2181,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78"/>
       <c r="B57" s="47" t="s">
         <v>6</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="72"/>
       <c r="B58" s="45" t="s">
         <v>7</v>
@@ -2217,7 +2217,7 @@
         <v>3.742</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="72"/>
       <c r="B59" s="43" t="s">
         <v>8</v>
@@ -2234,7 +2234,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="72"/>
       <c r="B60" s="43" t="s">
         <v>9</v>
@@ -2251,7 +2251,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="72"/>
       <c r="B61" s="43" t="s">
         <v>10</v>
@@ -2268,7 +2268,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="72"/>
       <c r="B62" s="43" t="s">
         <v>11</v>
@@ -2287,7 +2287,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="72"/>
       <c r="B63" s="43" t="s">
         <v>12</v>
@@ -2306,7 +2306,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="73"/>
       <c r="B64" s="44" t="s">
         <v>13</v>
@@ -2323,117 +2323,152 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C67" s="63"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="65"/>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C68" s="63"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="65"/>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C69" s="66"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="65"/>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="65"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="65"/>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="65"/>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="65"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="65"/>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C76" s="63"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="65"/>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C77" s="63"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="65"/>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="65"/>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C79" s="63"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="32">
+        <v>656</v>
+      </c>
+      <c r="D67" s="33">
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="E67" s="70">
+        <v>186</v>
+      </c>
+      <c r="F67" s="64"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="25">
+        <v>890</v>
+      </c>
+      <c r="D68" s="24">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="E68" s="63">
+        <v>218</v>
+      </c>
+      <c r="F68" s="64"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="25">
+        <v>654</v>
+      </c>
+      <c r="D69" s="24">
+        <v>10.47</v>
+      </c>
+      <c r="E69" s="63">
+        <v>188</v>
+      </c>
+      <c r="F69" s="64"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="25">
+        <v>658</v>
+      </c>
+      <c r="D70" s="24">
+        <v>4.8280000000000003</v>
+      </c>
+      <c r="E70" s="63">
+        <v>178</v>
+      </c>
+      <c r="F70" s="64"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="69">
+        <v>1082</v>
+      </c>
+      <c r="D71" s="57">
+        <v>21.974</v>
+      </c>
+      <c r="E71" s="63">
+        <v>235</v>
+      </c>
+      <c r="F71" s="64"/>
+    </row>
+    <row r="72" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="11">
+        <v>908</v>
+      </c>
+      <c r="D72" s="58">
+        <v>21.974</v>
+      </c>
+      <c r="E72" s="63">
+        <v>215</v>
+      </c>
+      <c r="F72" s="64"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="82"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="70">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="62"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="63">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="83"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="70">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="83"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="70">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="64"/>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="64"/>
+    </row>
+    <row r="79" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="12"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="64"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" s="63"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="65"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C81" s="63"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="64"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="64"/>
       <c r="D81" s="64"/>
-      <c r="E81" s="65"/>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C82" s="63"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="65"/>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C83" s="63"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="65"/>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="65"/>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="65"/>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="65"/>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
+      <c r="E81" s="64"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="64"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="64"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="64"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="64"/>
     </row>
   </sheetData>
+  <sortState ref="C67:E73">
+    <sortCondition ref="D67:D73"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A27:A43"/>
@@ -2454,38 +2489,38 @@
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
       <c r="D1" s="81"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="D2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="67" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="68">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="66">
         <v>44252</v>
       </c>
     </row>

--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -522,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,6 +720,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,11 +759,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1048,7 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E72" sqref="C67:E72"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,7 +1089,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="71">
+      <c r="A2" s="73">
         <v>43851</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1104,7 +1110,7 @@
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1123,7 +1129,7 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1148,7 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1167,7 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1186,7 @@
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1205,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1224,7 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1243,7 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1262,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
@@ -1275,7 +1281,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1300,7 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +1319,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
@@ -1332,7 +1338,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1351,7 +1357,7 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -1370,7 +1376,7 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1395,7 @@
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1414,7 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
@@ -1427,7 +1433,7 @@
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
@@ -1446,7 +1452,7 @@
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
@@ -1465,7 +1471,7 @@
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
@@ -1484,7 +1490,7 @@
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
@@ -1503,7 +1509,7 @@
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1528,7 @@
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
@@ -1541,7 +1547,7 @@
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1560,7 +1566,7 @@
       <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="74">
+      <c r="A27" s="76">
         <v>44252</v>
       </c>
       <c r="B27" s="34" t="s">
@@ -1581,7 +1587,7 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
+      <c r="A28" s="77"/>
       <c r="B28" s="35" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1606,7 @@
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="35" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1625,7 @@
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
+      <c r="A30" s="77"/>
       <c r="B30" s="35" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1644,7 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="75"/>
+      <c r="A31" s="77"/>
       <c r="B31" s="35" t="s">
         <v>6</v>
       </c>
@@ -1657,7 +1663,7 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="75"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="35" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1682,7 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="75"/>
+      <c r="A33" s="77"/>
       <c r="B33" s="35" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1701,7 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="35" t="s">
         <v>9</v>
       </c>
@@ -1712,15 +1718,15 @@
         <v>45</v>
       </c>
       <c r="G34" s="24"/>
-      <c r="I34" s="80" t="s">
+      <c r="I34" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="82"/>
+      <c r="L34" s="82"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="75"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="35" t="s">
         <v>10</v>
       </c>
@@ -1751,7 +1757,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="36" t="s">
         <v>11</v>
       </c>
@@ -1782,7 +1788,7 @@
       <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="30" t="s">
         <v>12</v>
       </c>
@@ -1813,7 +1819,7 @@
       <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
+      <c r="A38" s="78"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -1842,7 +1848,7 @@
       <c r="L38" s="68"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
+      <c r="A39" s="78"/>
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
@@ -1861,7 +1867,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="76"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -1880,7 +1886,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
+      <c r="A41" s="78"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1899,7 +1905,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="76"/>
+      <c r="A42" s="78"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
@@ -1918,7 +1924,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
+      <c r="A43" s="79"/>
       <c r="B43" s="19" t="s">
         <v>18</v>
       </c>
@@ -1937,7 +1943,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="74">
+      <c r="A44" s="76">
         <v>44273</v>
       </c>
       <c r="B44" s="34" t="s">
@@ -1958,7 +1964,7 @@
       <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="35" t="s">
         <v>3</v>
       </c>
@@ -1977,7 +1983,7 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="78"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="36" t="s">
         <v>4</v>
       </c>
@@ -1996,7 +2002,7 @@
       <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="72"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="30" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2021,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="72"/>
+      <c r="A48" s="74"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -2034,7 +2040,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="72"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
@@ -2053,7 +2059,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="72"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +2078,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="72"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
@@ -2091,7 +2097,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="79"/>
+      <c r="A52" s="81"/>
       <c r="B52" s="38" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2116,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="74">
+      <c r="A53" s="76">
         <v>44280</v>
       </c>
       <c r="B53" s="47" t="s">
@@ -2129,7 +2135,7 @@
       <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="45" t="s">
         <v>3</v>
       </c>
@@ -2146,7 +2152,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
+      <c r="A55" s="80"/>
       <c r="B55" s="43" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2171,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="72"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="46" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2188,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78"/>
+      <c r="A57" s="80"/>
       <c r="B57" s="47" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2205,7 @@
       <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="45" t="s">
         <v>7</v>
       </c>
@@ -2218,7 +2224,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="43" t="s">
         <v>8</v>
       </c>
@@ -2235,7 +2241,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="72"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="43" t="s">
         <v>9</v>
       </c>
@@ -2252,7 +2258,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="43" t="s">
         <v>10</v>
       </c>
@@ -2269,7 +2275,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="43" t="s">
         <v>11</v>
       </c>
@@ -2288,7 +2294,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="43" t="s">
         <v>12</v>
       </c>
@@ -2307,7 +2313,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="73"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="44" t="s">
         <v>13</v>
       </c>
@@ -2323,12 +2329,18 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" s="64"/>
       <c r="D66" s="64"/>
       <c r="E66" s="64"/>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="84">
+        <v>3300</v>
+      </c>
+      <c r="B67" s="84">
+        <v>50</v>
+      </c>
       <c r="C67" s="32">
         <v>656</v>
       </c>
@@ -2340,7 +2352,13 @@
       </c>
       <c r="F67" s="64"/>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="84">
+        <v>2600</v>
+      </c>
+      <c r="B68" s="84">
+        <v>250</v>
+      </c>
       <c r="C68" s="25">
         <v>890</v>
       </c>
@@ -2352,7 +2370,13 @@
       </c>
       <c r="F68" s="64"/>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="84">
+        <v>2600</v>
+      </c>
+      <c r="B69" s="84">
+        <v>450</v>
+      </c>
       <c r="C69" s="25">
         <v>654</v>
       </c>
@@ -2364,7 +2388,13 @@
       </c>
       <c r="F69" s="64"/>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="84">
+        <v>1600</v>
+      </c>
+      <c r="B70" s="84">
+        <v>650</v>
+      </c>
       <c r="C70" s="25">
         <v>658</v>
       </c>
@@ -2376,7 +2406,13 @@
       </c>
       <c r="F70" s="64"/>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="84">
+        <v>1200</v>
+      </c>
+      <c r="B71" s="84">
+        <v>850</v>
+      </c>
       <c r="C71" s="69">
         <v>1082</v>
       </c>
@@ -2388,7 +2424,13 @@
       </c>
       <c r="F71" s="64"/>
     </row>
-    <row r="72" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="84">
+        <v>800</v>
+      </c>
+      <c r="B72" s="84">
+        <v>1050</v>
+      </c>
       <c r="C72" s="11">
         <v>908</v>
       </c>
@@ -2400,69 +2442,129 @@
       </c>
       <c r="F72" s="64"/>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="82"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="84">
+        <v>400</v>
+      </c>
+      <c r="B73" s="84">
+        <v>1250</v>
+      </c>
+      <c r="C73" s="71"/>
       <c r="D73" s="9"/>
       <c r="E73" s="70">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="84">
+        <v>8.9540000000000006</v>
+      </c>
+      <c r="B74" s="84">
+        <v>2.3E-3</v>
+      </c>
       <c r="C74" s="62"/>
       <c r="D74" s="19"/>
       <c r="E74" s="63">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="83"/>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="72"/>
       <c r="D75" s="48"/>
       <c r="E75" s="70">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="83"/>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="84">
+        <v>4000</v>
+      </c>
+      <c r="B76" s="84">
+        <v>50</v>
+      </c>
+      <c r="C76" s="72"/>
       <c r="D76" s="48"/>
       <c r="E76" s="70">
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="84">
+        <v>3600</v>
+      </c>
+      <c r="B77" s="84">
+        <v>650</v>
+      </c>
       <c r="C77" s="1"/>
       <c r="D77" s="69"/>
       <c r="E77" s="64"/>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="84">
+        <v>2300</v>
+      </c>
+      <c r="B78" s="84">
+        <v>1250</v>
+      </c>
       <c r="C78" s="1"/>
       <c r="D78" s="69"/>
       <c r="E78" s="64"/>
     </row>
-    <row r="79" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="84">
+        <v>1800</v>
+      </c>
+      <c r="B79" s="84">
+        <v>1850</v>
+      </c>
       <c r="C79" s="12"/>
       <c r="D79" s="11"/>
       <c r="E79" s="64"/>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="84">
+        <v>1400</v>
+      </c>
+      <c r="B80" s="84">
+        <v>2450</v>
+      </c>
       <c r="C80" s="63"/>
       <c r="D80" s="63"/>
       <c r="E80" s="64"/>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="84">
+        <v>1000</v>
+      </c>
+      <c r="B81" s="84">
+        <v>3050</v>
+      </c>
       <c r="C81" s="64"/>
       <c r="D81" s="64"/>
       <c r="E81" s="64"/>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="84">
+        <v>800</v>
+      </c>
+      <c r="B82" s="84">
+        <v>3650</v>
+      </c>
       <c r="E82" s="64"/>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="84">
+        <v>8.3170000000000002</v>
+      </c>
+      <c r="B83" s="85">
+        <v>4.0000000000000002E-4</v>
+      </c>
       <c r="E83" s="64"/>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E84" s="64"/>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E85" s="64"/>
     </row>
   </sheetData>
@@ -2498,12 +2600,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">

--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
   <si>
     <t>файл</t>
   </si>
@@ -148,6 +148,39 @@
   </si>
   <si>
     <t>0.529</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>eV</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>NEW0027</t>
+  </si>
+  <si>
+    <t>NEW0028</t>
+  </si>
+  <si>
+    <t>NEW0029</t>
+  </si>
+  <si>
+    <t>NEW0030</t>
+  </si>
+  <si>
+    <t>pnorm</t>
   </si>
 </sst>
 </file>
@@ -217,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -518,11 +551,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,10 +770,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -726,44 +784,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,13 +1138,14 @@
     <col min="4" max="4" width="25.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1088,8 +1168,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="73">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="81">
         <v>43851</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1109,8 +1189,8 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="82"/>
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1128,8 +1208,8 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="82"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1147,8 +1227,8 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="82"/>
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
@@ -1166,8 +1246,8 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="82"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1185,8 +1265,8 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="82"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
@@ -1204,8 +1284,8 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="82"/>
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
@@ -1223,8 +1303,8 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="82"/>
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1242,8 +1322,8 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="82"/>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -1261,8 +1341,8 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="82"/>
       <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
@@ -1280,8 +1360,8 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
@@ -1299,8 +1379,8 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="82"/>
       <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
@@ -1318,8 +1398,8 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="82"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
@@ -1336,9 +1416,12 @@
         <v>7</v>
       </c>
       <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="82"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1355,9 +1438,12 @@
         <v>10</v>
       </c>
       <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="82"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -1375,8 +1461,8 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="82"/>
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
@@ -1393,9 +1479,17 @@
         <v>40</v>
       </c>
       <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="H17">
+        <f>C17/(F17*100000/(300*294*1.38*1E-23))*1E+21</f>
+        <v>3.5145495000000001E-4</v>
+      </c>
+      <c r="J17">
+        <f>I14/(I15*100000/(300*294*1.38*1E-23))*1E+21</f>
+        <v>1.2171599999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="82"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
@@ -1412,9 +1506,13 @@
         <v>10</v>
       </c>
       <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="H18">
+        <f t="shared" ref="H18:H36" si="0">C18/(F18*100000/(300*294*1.38*1E-23))*1E+21</f>
+        <v>4.4426339999999989E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="82"/>
       <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
@@ -1431,9 +1529,13 @@
         <v>14</v>
       </c>
       <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="H19" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
@@ -1450,9 +1552,13 @@
         <v>18</v>
       </c>
       <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3.6988139999999999E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="82"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
@@ -1469,9 +1575,13 @@
         <v>26</v>
       </c>
       <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>4.1711136923076913E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="82"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
@@ -1488,9 +1598,13 @@
         <v>40</v>
       </c>
       <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>3.4415199000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="82"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
@@ -1507,9 +1621,13 @@
         <v>26</v>
       </c>
       <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4.2506972307692302E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="82"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
@@ -1526,9 +1644,13 @@
         <v>27</v>
       </c>
       <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>4.0662159999999996E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="82"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1667,13 @@
         <v>30</v>
       </c>
       <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>4.0693715999999991E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="83"/>
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1564,9 +1690,13 @@
         <v>35</v>
       </c>
       <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="76">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>3.6340919999999988E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="84">
         <v>44252</v>
       </c>
       <c r="B27" s="34" t="s">
@@ -1585,9 +1715,13 @@
         <v>12</v>
       </c>
       <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
+      <c r="H27">
+        <f>C27/(F27*100000/(300*294*1.38*1E-23))*1E+21</f>
+        <v>3.083471999999999E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="85"/>
       <c r="B28" s="35" t="s">
         <v>3</v>
       </c>
@@ -1604,9 +1738,13 @@
         <v>23</v>
       </c>
       <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
+      <c r="H28" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="85"/>
       <c r="B29" s="35" t="s">
         <v>4</v>
       </c>
@@ -1623,9 +1761,17 @@
         <v>23</v>
       </c>
       <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1.8945359999999998E-4</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(H27,H29,H31,H32,H33,H34,H35)</f>
+        <v>1.7368503272727272E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="85"/>
       <c r="B30" s="35" t="s">
         <v>5</v>
       </c>
@@ -1642,9 +1788,13 @@
         <v>25</v>
       </c>
       <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2.1689791199999997E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="85"/>
       <c r="B31" s="35" t="s">
         <v>6</v>
       </c>
@@ -1661,9 +1811,13 @@
         <v>35</v>
       </c>
       <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1.4153831999999997E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="85"/>
       <c r="B32" s="35" t="s">
         <v>7</v>
       </c>
@@ -1680,9 +1834,13 @@
         <v>35</v>
       </c>
       <c r="G32" s="24"/>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.5962183999999996E-4</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="35" t="s">
         <v>8</v>
       </c>
@@ -1699,9 +1857,13 @@
         <v>45</v>
       </c>
       <c r="G33" s="24"/>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1.3415807999999998E-4</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="35" t="s">
         <v>9</v>
       </c>
@@ -1718,15 +1880,19 @@
         <v>45</v>
       </c>
       <c r="G34" s="24"/>
-      <c r="I34" s="82" t="s">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.3551047999999996E-4</v>
+      </c>
+      <c r="I34" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="35" t="s">
         <v>10</v>
       </c>
@@ -1743,6 +1909,10 @@
         <v>55</v>
       </c>
       <c r="G35" s="24"/>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.4716570909090908E-4</v>
+      </c>
       <c r="I35" s="13" t="s">
         <v>36</v>
       </c>
@@ -1757,7 +1927,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="36" t="s">
         <v>11</v>
       </c>
@@ -1774,21 +1944,25 @@
         <v>55</v>
       </c>
       <c r="G36" s="27"/>
-      <c r="I36" s="67">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.4738701090909089E-4</v>
+      </c>
+      <c r="I36" s="65">
         <v>44252</v>
       </c>
-      <c r="J36" s="68">
+      <c r="J36" s="66">
         <f>AVERAGE(E27,E28,E30)</f>
         <v>1031.9726666666668</v>
       </c>
-      <c r="K36" s="68">
+      <c r="K36" s="66">
         <f>(VAR(E27,E28,E30))^0.5</f>
         <v>65.12803618514333</v>
       </c>
-      <c r="L36" s="68"/>
+      <c r="L36" s="66"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="30" t="s">
         <v>12</v>
       </c>
@@ -1805,21 +1979,21 @@
       <c r="G37" s="33">
         <v>2.73</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="65">
         <v>44273</v>
       </c>
-      <c r="J37" s="68">
+      <c r="J37" s="66">
         <f>AVERAGE(E44,E46,E47:E51)</f>
         <v>710.28571428571433</v>
       </c>
-      <c r="K37" s="68">
+      <c r="K37" s="66">
         <f>(VAR(E44,E46:E51))^0.5</f>
         <v>83.717211065416166</v>
       </c>
-      <c r="L37" s="68"/>
+      <c r="L37" s="66"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -1834,21 +2008,21 @@
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="24"/>
-      <c r="I38" s="67">
+      <c r="I38" s="65">
         <v>44280</v>
       </c>
-      <c r="J38" s="68">
+      <c r="J38" s="66">
         <f>AVERAGE(E53,E57,E61,E64)</f>
         <v>851.25</v>
       </c>
-      <c r="K38" s="68">
+      <c r="K38" s="66">
         <f>(VAR(E53,E57,E61,E64))^0.5</f>
         <v>227.48974335853768</v>
       </c>
-      <c r="L38" s="68"/>
+      <c r="L38" s="66"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
+      <c r="A39" s="86"/>
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
@@ -1856,18 +2030,20 @@
         <v>40</v>
       </c>
       <c r="D39" s="1">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="25"/>
+      <c r="F39" s="25">
+        <v>7</v>
+      </c>
       <c r="G39" s="24">
         <v>2.83</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -1886,7 +2062,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
+      <c r="A41" s="86"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +2081,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
+      <c r="A42" s="86"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
@@ -1913,18 +2089,20 @@
         <v>2.0649999999999999</v>
       </c>
       <c r="D42" s="1">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="25"/>
+      <c r="F42" s="25">
+        <v>4</v>
+      </c>
       <c r="G42" s="24">
         <v>4.29</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="79"/>
+      <c r="A43" s="87"/>
       <c r="B43" s="19" t="s">
         <v>18</v>
       </c>
@@ -1943,7 +2121,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="76">
+      <c r="A44" s="84">
         <v>44273</v>
       </c>
       <c r="B44" s="34" t="s">
@@ -1964,7 +2142,7 @@
       <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="80"/>
+      <c r="A45" s="88"/>
       <c r="B45" s="35" t="s">
         <v>3</v>
       </c>
@@ -1983,7 +2161,7 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="80"/>
+      <c r="A46" s="88"/>
       <c r="B46" s="36" t="s">
         <v>4</v>
       </c>
@@ -2002,7 +2180,7 @@
       <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="74"/>
+      <c r="A47" s="82"/>
       <c r="B47" s="30" t="s">
         <v>5</v>
       </c>
@@ -2021,26 +2199,28 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="74"/>
+      <c r="A48" s="82"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="23" t="s">
-        <v>29</v>
+      <c r="D48" s="23">
+        <v>2.4</v>
       </c>
       <c r="E48" s="25">
         <v>654</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="25">
+        <v>0.5</v>
+      </c>
       <c r="G48" s="24">
         <v>4.83</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="74"/>
+      <c r="A49" s="82"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
@@ -2059,7 +2239,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
+      <c r="A50" s="82"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2078,7 +2258,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74"/>
+      <c r="A51" s="82"/>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
@@ -2097,26 +2277,28 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="81"/>
+      <c r="A52" s="89"/>
       <c r="B52" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="40" t="s">
-        <v>29</v>
+      <c r="D52" s="40">
+        <v>3.4</v>
       </c>
       <c r="E52" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="41"/>
+      <c r="F52" s="41">
+        <v>5</v>
+      </c>
       <c r="G52" s="42">
         <v>3.22</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="76">
+      <c r="A53" s="84">
         <v>44280</v>
       </c>
       <c r="B53" s="47" t="s">
@@ -2135,7 +2317,7 @@
       <c r="G53" s="49"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
+      <c r="A54" s="88"/>
       <c r="B54" s="45" t="s">
         <v>3</v>
       </c>
@@ -2152,7 +2334,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
+      <c r="A55" s="88"/>
       <c r="B55" s="43" t="s">
         <v>4</v>
       </c>
@@ -2160,18 +2342,20 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="D55" s="13">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="13">
+        <v>5</v>
+      </c>
       <c r="G55" s="13">
         <v>3.74</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="74"/>
+      <c r="A56" s="82"/>
       <c r="B56" s="46" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2372,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="80"/>
+      <c r="A57" s="88"/>
       <c r="B57" s="47" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2389,7 @@
       <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="74"/>
+      <c r="A58" s="82"/>
       <c r="B58" s="45" t="s">
         <v>7</v>
       </c>
@@ -2213,18 +2397,20 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="D58" s="50">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="50"/>
+      <c r="F58" s="50">
+        <v>5</v>
+      </c>
       <c r="G58" s="56">
         <v>3.742</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="74"/>
+      <c r="A59" s="82"/>
       <c r="B59" s="43" t="s">
         <v>8</v>
       </c>
@@ -2241,7 +2427,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="74"/>
+      <c r="A60" s="82"/>
       <c r="B60" s="43" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2444,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="74"/>
+      <c r="A61" s="82"/>
       <c r="B61" s="43" t="s">
         <v>10</v>
       </c>
@@ -2275,7 +2461,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="74"/>
+      <c r="A62" s="82"/>
       <c r="B62" s="43" t="s">
         <v>11</v>
       </c>
@@ -2283,18 +2469,20 @@
         <v>0.59299999999999997</v>
       </c>
       <c r="D62" s="13">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="13"/>
+      <c r="F62" s="13">
+        <v>5</v>
+      </c>
       <c r="G62" s="57">
         <v>3.7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="74"/>
+      <c r="A63" s="82"/>
       <c r="B63" s="43" t="s">
         <v>12</v>
       </c>
@@ -2307,13 +2495,15 @@
       <c r="E63" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="13"/>
+      <c r="F63" s="13">
+        <v>5</v>
+      </c>
       <c r="G63" s="57">
         <v>3.44</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="75"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="44" t="s">
         <v>13</v>
       </c>
@@ -2335,10 +2525,10 @@
       <c r="E66" s="64"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="84">
+      <c r="A67" s="71">
         <v>3300</v>
       </c>
-      <c r="B67" s="84">
+      <c r="B67" s="71">
         <v>50</v>
       </c>
       <c r="C67" s="32">
@@ -2347,16 +2537,16 @@
       <c r="D67" s="33">
         <v>2.3839999999999999</v>
       </c>
-      <c r="E67" s="70">
+      <c r="E67" s="68">
         <v>186</v>
       </c>
       <c r="F67" s="64"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="84">
+      <c r="A68" s="71">
         <v>2600</v>
       </c>
-      <c r="B68" s="84">
+      <c r="B68" s="71">
         <v>250</v>
       </c>
       <c r="C68" s="25">
@@ -2371,10 +2561,10 @@
       <c r="F68" s="64"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="84">
+      <c r="A69" s="71">
         <v>2600</v>
       </c>
-      <c r="B69" s="84">
+      <c r="B69" s="71">
         <v>450</v>
       </c>
       <c r="C69" s="25">
@@ -2389,10 +2579,10 @@
       <c r="F69" s="64"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="84">
+      <c r="A70" s="71">
         <v>1600</v>
       </c>
-      <c r="B70" s="84">
+      <c r="B70" s="71">
         <v>650</v>
       </c>
       <c r="C70" s="25">
@@ -2407,13 +2597,13 @@
       <c r="F70" s="64"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="84">
+      <c r="A71" s="71">
         <v>1200</v>
       </c>
-      <c r="B71" s="84">
+      <c r="B71" s="71">
         <v>850</v>
       </c>
-      <c r="C71" s="69">
+      <c r="C71" s="67">
         <v>1082</v>
       </c>
       <c r="D71" s="57">
@@ -2425,10 +2615,10 @@
       <c r="F71" s="64"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="84">
+      <c r="A72" s="71">
         <v>800</v>
       </c>
-      <c r="B72" s="84">
+      <c r="B72" s="71">
         <v>1050</v>
       </c>
       <c r="C72" s="11">
@@ -2443,23 +2633,23 @@
       <c r="F72" s="64"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="84">
+      <c r="A73" s="71">
         <v>400</v>
       </c>
-      <c r="B73" s="84">
+      <c r="B73" s="71">
         <v>1250</v>
       </c>
-      <c r="C73" s="71"/>
+      <c r="C73" s="69"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="70">
+      <c r="E73" s="68">
         <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="84">
+      <c r="A74" s="71">
         <v>8.9540000000000006</v>
       </c>
-      <c r="B74" s="84">
+      <c r="B74" s="71">
         <v>2.3E-3</v>
       </c>
       <c r="C74" s="62"/>
@@ -2469,52 +2659,52 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="72"/>
+      <c r="C75" s="70"/>
       <c r="D75" s="48"/>
-      <c r="E75" s="70">
+      <c r="E75" s="68">
         <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="84">
+      <c r="A76" s="71">
         <v>4000</v>
       </c>
-      <c r="B76" s="84">
+      <c r="B76" s="71">
         <v>50</v>
       </c>
-      <c r="C76" s="72"/>
+      <c r="C76" s="70"/>
       <c r="D76" s="48"/>
-      <c r="E76" s="70">
+      <c r="E76" s="68">
         <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="84">
+      <c r="A77" s="71">
         <v>3600</v>
       </c>
-      <c r="B77" s="84">
+      <c r="B77" s="71">
         <v>650</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="69"/>
+      <c r="D77" s="67"/>
       <c r="E77" s="64"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="84">
+      <c r="A78" s="71">
         <v>2300</v>
       </c>
-      <c r="B78" s="84">
+      <c r="B78" s="71">
         <v>1250</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="69"/>
+      <c r="D78" s="67"/>
       <c r="E78" s="64"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="84">
+      <c r="A79" s="71">
         <v>1800</v>
       </c>
-      <c r="B79" s="84">
+      <c r="B79" s="71">
         <v>1850</v>
       </c>
       <c r="C79" s="12"/>
@@ -2522,10 +2712,10 @@
       <c r="E79" s="64"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="84">
+      <c r="A80" s="71">
         <v>1400</v>
       </c>
-      <c r="B80" s="84">
+      <c r="B80" s="71">
         <v>2450</v>
       </c>
       <c r="C80" s="63"/>
@@ -2533,39 +2723,304 @@
       <c r="E80" s="64"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="84">
+      <c r="A81" s="71">
         <v>1000</v>
       </c>
-      <c r="B81" s="84">
+      <c r="B81" s="71">
         <v>3050</v>
       </c>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
+      <c r="C81" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D81" s="24">
+        <v>25.856999999999999</v>
+      </c>
+      <c r="E81" s="25">
+        <f>C81*0.12</f>
+        <v>0.38400000000000001</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="84">
+      <c r="A82" s="71">
         <v>800</v>
       </c>
-      <c r="B82" s="84">
+      <c r="B82" s="71">
         <v>3650</v>
       </c>
-      <c r="E82" s="64"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="84">
+      <c r="C82" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D82" s="24">
+        <v>18.872599999999998</v>
+      </c>
+      <c r="E82" s="25">
+        <f t="shared" ref="E82:E104" si="1">C82*0.12</f>
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="71">
         <v>8.3170000000000002</v>
       </c>
-      <c r="B83" s="85">
+      <c r="B83" s="72">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="E83" s="64"/>
+      <c r="C83" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="D83" s="24">
+        <v>2.4705050000000002</v>
+      </c>
+      <c r="E83" s="25">
+        <f t="shared" si="1"/>
+        <v>0.28799999999999998</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="64"/>
+      <c r="C84" s="40">
+        <v>3.4</v>
+      </c>
+      <c r="D84" s="42">
+        <v>20.239699999999999</v>
+      </c>
+      <c r="E84" s="25">
+        <f t="shared" si="1"/>
+        <v>0.40799999999999997</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="64"/>
+      <c r="C85" s="73">
+        <v>3</v>
+      </c>
+      <c r="D85" s="73">
+        <v>22.1</v>
+      </c>
+      <c r="E85" s="25">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="50">
+        <v>3</v>
+      </c>
+      <c r="D86" s="56">
+        <v>22.106000000000002</v>
+      </c>
+      <c r="E86" s="25">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="73">
+        <v>3.3</v>
+      </c>
+      <c r="D87" s="57">
+        <v>21.974309999999999</v>
+      </c>
+      <c r="E87" s="25">
+        <f t="shared" si="1"/>
+        <v>0.39599999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="73">
+        <v>3.1</v>
+      </c>
+      <c r="D88" s="57">
+        <v>21.088999999999999</v>
+      </c>
+      <c r="E88" s="25">
+        <f t="shared" si="1"/>
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="71">
+        <v>3</v>
+      </c>
+      <c r="D90" s="71">
+        <v>40</v>
+      </c>
+      <c r="E90" s="25">
+        <f>C90*0.12</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="71">
+        <v>2.1</v>
+      </c>
+      <c r="D91" s="71">
+        <v>10</v>
+      </c>
+      <c r="E91" s="25">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D92" s="71">
+        <v>14</v>
+      </c>
+      <c r="E92" s="25">
+        <f t="shared" si="1"/>
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="71">
+        <v>2</v>
+      </c>
+      <c r="D93" s="71">
+        <v>18</v>
+      </c>
+      <c r="E93" s="25">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="71">
+        <v>3</v>
+      </c>
+      <c r="D94" s="71">
+        <v>30</v>
+      </c>
+      <c r="E94" s="25">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="71">
+        <v>3.1</v>
+      </c>
+      <c r="D95" s="71">
+        <v>35</v>
+      </c>
+      <c r="E95" s="25">
+        <f t="shared" si="1"/>
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="71">
+        <v>2.8</v>
+      </c>
+      <c r="D96" s="71">
+        <v>23</v>
+      </c>
+      <c r="E96" s="25">
+        <f t="shared" si="1"/>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="71">
+        <v>2.8</v>
+      </c>
+      <c r="D97" s="71">
+        <v>23</v>
+      </c>
+      <c r="E97" s="25">
+        <f t="shared" si="1"/>
+        <v>0.33599999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="71">
+        <v>3.2</v>
+      </c>
+      <c r="D98" s="71">
+        <v>25</v>
+      </c>
+      <c r="E98" s="25">
+        <f t="shared" si="1"/>
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="71">
+        <v>3.2</v>
+      </c>
+      <c r="D99" s="71">
+        <v>35</v>
+      </c>
+      <c r="E99" s="25">
+        <f t="shared" si="1"/>
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="71">
+        <v>3.1</v>
+      </c>
+      <c r="D100" s="71">
+        <v>35</v>
+      </c>
+      <c r="E100" s="25">
+        <f t="shared" si="1"/>
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="71">
+        <v>3.4</v>
+      </c>
+      <c r="D101" s="71">
+        <v>45</v>
+      </c>
+      <c r="E101" s="25">
+        <f t="shared" si="1"/>
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="71">
+        <v>3.3</v>
+      </c>
+      <c r="D102" s="71">
+        <v>45</v>
+      </c>
+      <c r="E102" s="25">
+        <f t="shared" si="1"/>
+        <v>0.39599999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="71">
+        <v>3.4</v>
+      </c>
+      <c r="D103" s="71">
+        <v>55</v>
+      </c>
+      <c r="E103" s="25">
+        <f t="shared" si="1"/>
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="71">
+        <v>3.5</v>
+      </c>
+      <c r="D104" s="71">
+        <v>55</v>
+      </c>
+      <c r="E104" s="25">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="C67:E73">
@@ -2585,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,37 +3054,108 @@
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="66">
-        <v>44252</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="75">
+        <v>0</v>
+      </c>
+      <c r="D2" s="79">
+        <v>8</v>
+      </c>
+      <c r="E2" s="79">
+        <v>3.41</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="76">
+        <v>33.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="80"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="75">
+        <v>0</v>
+      </c>
+      <c r="D3" s="53">
+        <v>8</v>
+      </c>
+      <c r="E3" s="53">
+        <v>3.3</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="76">
+        <v>32.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="75">
+        <v>0</v>
+      </c>
+      <c r="D4" s="53">
+        <v>8</v>
+      </c>
+      <c r="E4" s="53">
+        <v>3.41</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="76">
+        <v>33.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>3.4</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="77">
+        <v>0</v>
+      </c>
+      <c r="D5" s="50">
+        <v>8</v>
+      </c>
+      <c r="E5" s="50">
+        <v>3.37</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="78">
+        <v>33.32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\сергей\Desktop\pavlik\msu\СПЕКТРЫ\Обработка всех прошлых спектров\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\msu\СПЕКТРЫ\Обработка всех прошлых спектров\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A48255-CCE5-438D-800C-91CB8B29E107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1123,29 +1124,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.69140625" customWidth="1"/>
+    <col min="2" max="2" width="14.53515625" customWidth="1"/>
+    <col min="3" max="3" width="38.53515625" customWidth="1"/>
+    <col min="4" max="4" width="25.3828125" customWidth="1"/>
+    <col min="5" max="5" width="9.15234375" customWidth="1"/>
+    <col min="6" max="6" width="16.3046875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.69140625" customWidth="1"/>
+    <col min="10" max="10" width="18.15234375" customWidth="1"/>
+    <col min="11" max="11" width="14.3828125" customWidth="1"/>
+    <col min="12" max="12" width="17.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="81">
         <v>43851</v>
       </c>
@@ -1189,7 +1190,7 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="82"/>
       <c r="B3" s="15" t="s">
         <v>3</v>
@@ -1208,7 +1209,7 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="82"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
@@ -1227,7 +1228,7 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="82"/>
       <c r="B5" s="15" t="s">
         <v>5</v>
@@ -1246,7 +1247,7 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="82"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
@@ -1265,7 +1266,7 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="82"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="82"/>
       <c r="B8" s="15" t="s">
         <v>8</v>
@@ -1303,7 +1304,7 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="82"/>
       <c r="B9" s="15" t="s">
         <v>9</v>
@@ -1322,7 +1323,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="82"/>
       <c r="B10" s="15" t="s">
         <v>10</v>
@@ -1341,7 +1342,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="82"/>
       <c r="B11" s="15" t="s">
         <v>11</v>
@@ -1360,7 +1361,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="82"/>
       <c r="B12" s="15" t="s">
         <v>12</v>
@@ -1379,7 +1380,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="82"/>
       <c r="B13" s="15" t="s">
         <v>13</v>
@@ -1398,7 +1399,7 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="82"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
@@ -1417,10 +1418,10 @@
       </c>
       <c r="G14" s="18"/>
       <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="82"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
@@ -1439,10 +1440,10 @@
       </c>
       <c r="G15" s="18"/>
       <c r="I15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="82"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
@@ -1461,7 +1462,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="82"/>
       <c r="B17" s="15" t="s">
         <v>17</v>
@@ -1485,10 +1486,10 @@
       </c>
       <c r="J17">
         <f>I14/(I15*100000/(300*294*1.38*1E-23))*1E+21</f>
-        <v>1.2171599999999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.2314599999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="82"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
@@ -1511,7 +1512,7 @@
         <v>4.4426339999999989E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="82"/>
       <c r="B19" s="15" t="s">
         <v>19</v>
@@ -1534,7 +1535,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="82"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
@@ -1557,7 +1558,7 @@
         <v>3.6988139999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="82"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
@@ -1580,7 +1581,7 @@
         <v>4.1711136923076913E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="82"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
@@ -1603,7 +1604,7 @@
         <v>3.4415199000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="82"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
@@ -1626,7 +1627,7 @@
         <v>4.2506972307692302E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="82"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
@@ -1649,7 +1650,7 @@
         <v>4.0662159999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="82"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
@@ -1672,7 +1673,7 @@
         <v>4.0693715999999991E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="83"/>
       <c r="B26" s="16" t="s">
         <v>26</v>
@@ -1695,7 +1696,7 @@
         <v>3.6340919999999988E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="84">
         <v>44252</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>3.083471999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="85"/>
       <c r="B28" s="35" t="s">
         <v>3</v>
@@ -1743,7 +1744,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="85"/>
       <c r="B29" s="35" t="s">
         <v>4</v>
@@ -1770,7 +1771,7 @@
         <v>1.7368503272727272E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="85"/>
       <c r="B30" s="35" t="s">
         <v>5</v>
@@ -1793,7 +1794,7 @@
         <v>2.1689791199999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="85"/>
       <c r="B31" s="35" t="s">
         <v>6</v>
@@ -1816,7 +1817,7 @@
         <v>1.4153831999999997E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="85"/>
       <c r="B32" s="35" t="s">
         <v>7</v>
@@ -1839,7 +1840,7 @@
         <v>1.5962183999999996E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="85"/>
       <c r="B33" s="35" t="s">
         <v>8</v>
@@ -1862,7 +1863,7 @@
         <v>1.3415807999999998E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="85"/>
       <c r="B34" s="35" t="s">
         <v>9</v>
@@ -1891,7 +1892,7 @@
       <c r="K34" s="90"/>
       <c r="L34" s="90"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="85"/>
       <c r="B35" s="35" t="s">
         <v>10</v>
@@ -1926,7 +1927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="85"/>
       <c r="B36" s="36" t="s">
         <v>11</v>
@@ -1961,7 +1962,7 @@
       </c>
       <c r="L36" s="66"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="86"/>
       <c r="B37" s="30" t="s">
         <v>12</v>
@@ -1992,7 +1993,7 @@
       </c>
       <c r="L37" s="66"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="86"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
@@ -2021,7 +2022,7 @@
       </c>
       <c r="L38" s="66"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="86"/>
       <c r="B39" s="3" t="s">
         <v>14</v>
@@ -2042,7 +2043,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="86"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
@@ -2061,7 +2062,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="86"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
@@ -2080,7 +2081,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="86"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
@@ -2101,7 +2102,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="87"/>
       <c r="B43" s="19" t="s">
         <v>18</v>
@@ -2120,7 +2121,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="84">
         <v>44273</v>
       </c>
@@ -2141,7 +2142,7 @@
       </c>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="88"/>
       <c r="B45" s="35" t="s">
         <v>3</v>
@@ -2160,7 +2161,7 @@
       </c>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="88"/>
       <c r="B46" s="36" t="s">
         <v>4</v>
@@ -2179,7 +2180,7 @@
       </c>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="82"/>
       <c r="B47" s="30" t="s">
         <v>5</v>
@@ -2198,7 +2199,7 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="82"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
@@ -2219,7 +2220,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="82"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
@@ -2238,7 +2239,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="82"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -2257,7 +2258,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="82"/>
       <c r="B51" s="3" t="s">
         <v>9</v>
@@ -2276,7 +2277,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="89"/>
       <c r="B52" s="38" t="s">
         <v>10</v>
@@ -2297,7 +2298,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="84">
         <v>44280</v>
       </c>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="88"/>
       <c r="B54" s="45" t="s">
         <v>3</v>
@@ -2333,7 +2334,7 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="88"/>
       <c r="B55" s="43" t="s">
         <v>4</v>
@@ -2354,7 +2355,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="82"/>
       <c r="B56" s="46" t="s">
         <v>5</v>
@@ -2371,7 +2372,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="88"/>
       <c r="B57" s="47" t="s">
         <v>6</v>
@@ -2388,7 +2389,7 @@
       </c>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="82"/>
       <c r="B58" s="45" t="s">
         <v>7</v>
@@ -2409,7 +2410,7 @@
         <v>3.742</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="82"/>
       <c r="B59" s="43" t="s">
         <v>8</v>
@@ -2426,7 +2427,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="82"/>
       <c r="B60" s="43" t="s">
         <v>9</v>
@@ -2443,7 +2444,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="82"/>
       <c r="B61" s="43" t="s">
         <v>10</v>
@@ -2460,7 +2461,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="82"/>
       <c r="B62" s="43" t="s">
         <v>11</v>
@@ -2481,7 +2482,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="82"/>
       <c r="B63" s="43" t="s">
         <v>12</v>
@@ -2502,7 +2503,7 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="83"/>
       <c r="B64" s="44" t="s">
         <v>13</v>
@@ -2519,12 +2520,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C66" s="64"/>
       <c r="D66" s="64"/>
       <c r="E66" s="64"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="71">
         <v>3300</v>
       </c>
@@ -2542,7 +2543,7 @@
       </c>
       <c r="F67" s="64"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="71">
         <v>2600</v>
       </c>
@@ -2560,7 +2561,7 @@
       </c>
       <c r="F68" s="64"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="71">
         <v>2600</v>
       </c>
@@ -2578,7 +2579,7 @@
       </c>
       <c r="F69" s="64"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="71">
         <v>1600</v>
       </c>
@@ -2596,7 +2597,7 @@
       </c>
       <c r="F70" s="64"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="71">
         <v>1200</v>
       </c>
@@ -2614,7 +2615,7 @@
       </c>
       <c r="F71" s="64"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="71">
         <v>800</v>
       </c>
@@ -2632,7 +2633,7 @@
       </c>
       <c r="F72" s="64"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="71">
         <v>400</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="71">
         <v>8.9540000000000006</v>
       </c>
@@ -2658,14 +2659,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C75" s="70"/>
       <c r="D75" s="48"/>
       <c r="E75" s="68">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="71">
         <v>4000</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="71">
         <v>3600</v>
       </c>
@@ -2689,7 +2690,7 @@
       <c r="D77" s="67"/>
       <c r="E77" s="64"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="71">
         <v>2300</v>
       </c>
@@ -2700,7 +2701,7 @@
       <c r="D78" s="67"/>
       <c r="E78" s="64"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="71">
         <v>1800</v>
       </c>
@@ -2711,7 +2712,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="64"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="71">
         <v>1400</v>
       </c>
@@ -2722,7 +2723,7 @@
       <c r="D80" s="63"/>
       <c r="E80" s="64"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="71">
         <v>1000</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="71">
         <v>800</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="71">
         <v>8.3170000000000002</v>
       </c>
@@ -2776,7 +2777,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C84" s="40">
         <v>3.4</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C85" s="73">
         <v>3</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C86" s="50">
         <v>3</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C87" s="73">
         <v>3.3</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>0.39599999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C88" s="73">
         <v>3.1</v>
       </c>
@@ -2836,13 +2837,13 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E89" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C90" s="71">
         <v>3</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C91" s="71">
         <v>2.1</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C92" s="71">
         <v>2.2000000000000002</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C93" s="71">
         <v>2</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C94" s="71">
         <v>3</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C95" s="71">
         <v>3.1</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C96" s="71">
         <v>2.8</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C97" s="71">
         <v>2.8</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C98" s="71">
         <v>3.2</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C99" s="71">
         <v>3.2</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C100" s="71">
         <v>3.1</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C101" s="71">
         <v>3.4</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C102" s="71">
         <v>3.3</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>0.39599999999999996</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C103" s="71">
         <v>3.4</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C104" s="71">
         <v>3.5</v>
       </c>
@@ -3023,7 +3024,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C67:E73">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C67:E73">
     <sortCondition ref="D67:D73"/>
   </sortState>
   <mergeCells count="5">
@@ -3039,22 +3040,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" customWidth="1"/>
+    <col min="3" max="3" width="16.3046875" customWidth="1"/>
+    <col min="4" max="4" width="21.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="74" t="s">
         <v>42</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="79"/>
       <c r="B2" s="79"/>
       <c r="C2" s="75">
@@ -3096,7 +3097,7 @@
         <v>33.56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="80"/>
       <c r="B3" s="53"/>
       <c r="C3" s="75">
@@ -3115,7 +3116,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="75">
@@ -3134,7 +3135,7 @@
         <v>33.56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="50">
         <v>3.4</v>
       </c>

--- a/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
+++ b/СПЕКТРЫ/Обработка всех прошлых спектров/ОБРАБОТКА.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\msu\СПЕКТРЫ\Обработка всех прошлых спектров\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\сергей\Desktop\pavlik\msu\СПЕКТРЫ\Обработка всех прошлых спектров\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A48255-CCE5-438D-800C-91CB8B29E107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -187,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -813,6 +812,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1124,29 +1126,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="C109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H129" sqref="C125:H129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.69140625" customWidth="1"/>
-    <col min="2" max="2" width="14.53515625" customWidth="1"/>
-    <col min="3" max="3" width="38.53515625" customWidth="1"/>
-    <col min="4" max="4" width="25.3828125" customWidth="1"/>
-    <col min="5" max="5" width="9.15234375" customWidth="1"/>
-    <col min="6" max="6" width="16.3046875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69140625" customWidth="1"/>
-    <col min="10" max="10" width="18.15234375" customWidth="1"/>
-    <col min="11" max="11" width="14.3828125" customWidth="1"/>
-    <col min="12" max="12" width="17.3046875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1169,8 +1171,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="81">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="82">
         <v>43851</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -1190,8 +1192,8 @@
       </c>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="82"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="83"/>
       <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
@@ -1209,8 +1211,8 @@
       </c>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="82"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="83"/>
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
@@ -1228,8 +1230,8 @@
       </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="82"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="83"/>
       <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
@@ -1247,8 +1249,8 @@
       </c>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="82"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="83"/>
       <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
@@ -1266,8 +1268,8 @@
       </c>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="82"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="83"/>
       <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
@@ -1285,8 +1287,8 @@
       </c>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="82"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
       <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
@@ -1304,8 +1306,8 @@
       </c>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="82"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="83"/>
       <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
@@ -1323,8 +1325,8 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="82"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="83"/>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
@@ -1342,8 +1344,8 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="83"/>
       <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
@@ -1361,8 +1363,8 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="82"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
       <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
@@ -1380,8 +1382,8 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" s="82"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="83"/>
       <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
@@ -1399,8 +1401,8 @@
       </c>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="83"/>
       <c r="B14" s="15" t="s">
         <v>14</v>
       </c>
@@ -1421,8 +1423,8 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="83"/>
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1445,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="82"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="83"/>
       <c r="B16" s="15" t="s">
         <v>16</v>
       </c>
@@ -1462,8 +1464,8 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="82"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="83"/>
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
@@ -1489,8 +1491,8 @@
         <v>2.2314599999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="82"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="83"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
@@ -1512,8 +1514,8 @@
         <v>4.4426339999999989E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="82"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="83"/>
       <c r="B19" s="15" t="s">
         <v>19</v>
       </c>
@@ -1535,8 +1537,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="82"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="83"/>
       <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
@@ -1558,8 +1560,8 @@
         <v>3.6988139999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="82"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="83"/>
       <c r="B21" s="15" t="s">
         <v>21</v>
       </c>
@@ -1581,8 +1583,8 @@
         <v>4.1711136923076913E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="82"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="83"/>
       <c r="B22" s="15" t="s">
         <v>22</v>
       </c>
@@ -1604,8 +1606,8 @@
         <v>3.4415199000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="82"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
       <c r="B23" s="15" t="s">
         <v>23</v>
       </c>
@@ -1627,8 +1629,8 @@
         <v>4.2506972307692302E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="82"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
@@ -1650,8 +1652,8 @@
         <v>4.0662159999999996E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="82"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="83"/>
       <c r="B25" s="15" t="s">
         <v>25</v>
       </c>
@@ -1673,8 +1675,8 @@
         <v>4.0693715999999991E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="83"/>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="84"/>
       <c r="B26" s="16" t="s">
         <v>26</v>
       </c>
@@ -1696,8 +1698,8 @@
         <v>3.6340919999999988E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="84">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="85">
         <v>44252</v>
       </c>
       <c r="B27" s="34" t="s">
@@ -1721,8 +1723,8 @@
         <v>3.083471999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="85"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="86"/>
       <c r="B28" s="35" t="s">
         <v>3</v>
       </c>
@@ -1744,8 +1746,8 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="85"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="86"/>
       <c r="B29" s="35" t="s">
         <v>4</v>
       </c>
@@ -1771,8 +1773,8 @@
         <v>1.7368503272727272E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="85"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="86"/>
       <c r="B30" s="35" t="s">
         <v>5</v>
       </c>
@@ -1794,8 +1796,8 @@
         <v>2.1689791199999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="85"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="86"/>
       <c r="B31" s="35" t="s">
         <v>6</v>
       </c>
@@ -1817,8 +1819,8 @@
         <v>1.4153831999999997E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="85"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="86"/>
       <c r="B32" s="35" t="s">
         <v>7</v>
       </c>
@@ -1840,8 +1842,8 @@
         <v>1.5962183999999996E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="85"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="86"/>
       <c r="B33" s="35" t="s">
         <v>8</v>
       </c>
@@ -1863,8 +1865,8 @@
         <v>1.3415807999999998E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="85"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="86"/>
       <c r="B34" s="35" t="s">
         <v>9</v>
       </c>
@@ -1885,15 +1887,15 @@
         <f t="shared" si="0"/>
         <v>1.3551047999999996E-4</v>
       </c>
-      <c r="I34" s="90" t="s">
+      <c r="I34" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="85"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="86"/>
       <c r="B35" s="35" t="s">
         <v>10</v>
       </c>
@@ -1927,8 +1929,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="85"/>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="86"/>
       <c r="B36" s="36" t="s">
         <v>11</v>
       </c>
@@ -1962,8 +1964,8 @@
       </c>
       <c r="L36" s="66"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="86"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="87"/>
       <c r="B37" s="30" t="s">
         <v>12</v>
       </c>
@@ -1993,8 +1995,8 @@
       </c>
       <c r="L37" s="66"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="86"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="87"/>
       <c r="B38" s="3" t="s">
         <v>13</v>
       </c>
@@ -2022,8 +2024,8 @@
       </c>
       <c r="L38" s="66"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="86"/>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="87"/>
       <c r="B39" s="3" t="s">
         <v>14</v>
       </c>
@@ -2043,8 +2045,8 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="86"/>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="87"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -2062,8 +2064,8 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="86"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="87"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2081,8 +2083,8 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="86"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="87"/>
       <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2102,8 +2104,8 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="87"/>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="88"/>
       <c r="B43" s="19" t="s">
         <v>18</v>
       </c>
@@ -2121,8 +2123,8 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="84">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="85">
         <v>44273</v>
       </c>
       <c r="B44" s="34" t="s">
@@ -2142,8 +2144,8 @@
       </c>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="88"/>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="89"/>
       <c r="B45" s="35" t="s">
         <v>3</v>
       </c>
@@ -2161,8 +2163,8 @@
       </c>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="88"/>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="89"/>
       <c r="B46" s="36" t="s">
         <v>4</v>
       </c>
@@ -2180,8 +2182,8 @@
       </c>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="82"/>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="83"/>
       <c r="B47" s="30" t="s">
         <v>5</v>
       </c>
@@ -2199,8 +2201,8 @@
         <v>4.54</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="82"/>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="83"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
@@ -2220,8 +2222,8 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="82"/>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="83"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
@@ -2239,8 +2241,8 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="82"/>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="83"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
       </c>
@@ -2258,8 +2260,8 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="82"/>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="83"/>
       <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
@@ -2277,8 +2279,8 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="89"/>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="90"/>
       <c r="B52" s="38" t="s">
         <v>10</v>
       </c>
@@ -2298,8 +2300,8 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="84">
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="85">
         <v>44280</v>
       </c>
       <c r="B53" s="47" t="s">
@@ -2317,8 +2319,8 @@
       </c>
       <c r="G53" s="49"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A54" s="88"/>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="89"/>
       <c r="B54" s="45" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2336,8 @@
         <v>3.36</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A55" s="88"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="89"/>
       <c r="B55" s="43" t="s">
         <v>4</v>
       </c>
@@ -2355,8 +2357,8 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="82"/>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="83"/>
       <c r="B56" s="46" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +2374,8 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="88"/>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="89"/>
       <c r="B57" s="47" t="s">
         <v>6</v>
       </c>
@@ -2389,8 +2391,8 @@
       </c>
       <c r="G57" s="49"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A58" s="82"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="83"/>
       <c r="B58" s="45" t="s">
         <v>7</v>
       </c>
@@ -2410,8 +2412,8 @@
         <v>3.742</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="82"/>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="83"/>
       <c r="B59" s="43" t="s">
         <v>8</v>
       </c>
@@ -2427,8 +2429,8 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A60" s="82"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="83"/>
       <c r="B60" s="43" t="s">
         <v>9</v>
       </c>
@@ -2444,8 +2446,8 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A61" s="82"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="83"/>
       <c r="B61" s="43" t="s">
         <v>10</v>
       </c>
@@ -2461,8 +2463,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A62" s="82"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="83"/>
       <c r="B62" s="43" t="s">
         <v>11</v>
       </c>
@@ -2482,8 +2484,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A63" s="82"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="83"/>
       <c r="B63" s="43" t="s">
         <v>12</v>
       </c>
@@ -2503,8 +2505,8 @@
         <v>3.44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="83"/>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="84"/>
       <c r="B64" s="44" t="s">
         <v>13</v>
       </c>
@@ -2520,12 +2522,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" s="64"/>
       <c r="D66" s="64"/>
       <c r="E66" s="64"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="71">
         <v>3300</v>
       </c>
@@ -2543,7 +2545,7 @@
       </c>
       <c r="F67" s="64"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="71">
         <v>2600</v>
       </c>
@@ -2561,7 +2563,7 @@
       </c>
       <c r="F68" s="64"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="71">
         <v>2600</v>
       </c>
@@ -2579,7 +2581,7 @@
       </c>
       <c r="F69" s="64"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="71">
         <v>1600</v>
       </c>
@@ -2597,7 +2599,7 @@
       </c>
       <c r="F70" s="64"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="71">
         <v>1200</v>
       </c>
@@ -2615,7 +2617,7 @@
       </c>
       <c r="F71" s="64"/>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="71">
         <v>800</v>
       </c>
@@ -2633,7 +2635,7 @@
       </c>
       <c r="F72" s="64"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="71">
         <v>400</v>
       </c>
@@ -2646,7 +2648,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="71">
         <v>8.9540000000000006</v>
       </c>
@@ -2659,14 +2661,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C75" s="70"/>
       <c r="D75" s="48"/>
       <c r="E75" s="68">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="71">
         <v>4000</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="71">
         <v>3600</v>
       </c>
@@ -2690,7 +2692,7 @@
       <c r="D77" s="67"/>
       <c r="E77" s="64"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="71">
         <v>2300</v>
       </c>
@@ -2701,7 +2703,7 @@
       <c r="D78" s="67"/>
       <c r="E78" s="64"/>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="71">
         <v>1800</v>
       </c>
@@ -2712,7 +2714,7 @@
       <c r="D79" s="11"/>
       <c r="E79" s="64"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="71">
         <v>1400</v>
       </c>
@@ -2723,7 +2725,7 @@
       <c r="D80" s="63"/>
       <c r="E80" s="64"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="71">
         <v>1000</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="71">
         <v>800</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="71">
         <v>8.3170000000000002</v>
       </c>
@@ -2777,7 +2779,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C84" s="40">
         <v>3.4</v>
       </c>
@@ -2789,7 +2791,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C85" s="73">
         <v>3</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C86" s="50">
         <v>3</v>
       </c>
@@ -2813,7 +2815,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C87" s="73">
         <v>3.3</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>0.39599999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C88" s="73">
         <v>3.1</v>
       </c>
@@ -2837,13 +2839,13 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E89" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C90" s="71">
         <v>3</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C91" s="71">
         <v>2.1</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C92" s="71">
         <v>2.2000000000000002</v>
       </c>
@@ -2879,7 +2881,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C93" s="71">
         <v>2</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C94" s="71">
         <v>3</v>
       </c>
@@ -2903,7 +2905,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C95" s="71">
         <v>3.1</v>
       </c>
@@ -2915,7 +2917,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C96" s="71">
         <v>2.8</v>
       </c>
@@ -2927,7 +2929,7 @@
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="71">
         <v>2.8</v>
       </c>
@@ -2939,7 +2941,7 @@
         <v>0.33599999999999997</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="71">
         <v>3.2</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="71">
         <v>3.2</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="71">
         <v>3.1</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="71">
         <v>3.4</v>
       </c>
@@ -2987,7 +2989,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="71">
         <v>3.3</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>0.39599999999999996</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" s="71">
         <v>3.4</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" s="71">
         <v>3.5</v>
       </c>
@@ -3023,8 +3025,366 @@
         <v>0.42</v>
       </c>
     </row>
+    <row r="107" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="8">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D108" s="9">
+        <v>12</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D109" s="81">
+        <v>23</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="1">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D110" s="81">
+        <v>35</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="1">
+        <v>0.496</v>
+      </c>
+      <c r="D111" s="81">
+        <v>45</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="12">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D112" s="11">
+        <v>55</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C113" s="1">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D113" s="81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C116" s="71">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D116" s="71">
+        <v>12</v>
+      </c>
+      <c r="E116" s="71">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F116" s="71">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G116" s="71">
+        <v>12</v>
+      </c>
+      <c r="H116" s="71">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C117" s="71">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="D117" s="71">
+        <v>23</v>
+      </c>
+      <c r="E117" s="71">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F117" s="71">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G117" s="71">
+        <v>23</v>
+      </c>
+      <c r="H117" s="71">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I117">
+        <f>0.0093*G117</f>
+        <v>0.21389999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C118" s="71">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D118" s="71">
+        <v>25</v>
+      </c>
+      <c r="E118" s="71">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F118" s="71">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G118" s="71">
+        <v>25</v>
+      </c>
+      <c r="H118" s="71">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I118">
+        <f t="shared" ref="I118:I122" si="2">0.0093*G118</f>
+        <v>0.23249999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C119" s="71">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D119" s="71">
+        <v>35</v>
+      </c>
+      <c r="E119" s="71">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F119" s="71">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G119" s="71">
+        <v>35</v>
+      </c>
+      <c r="H119" s="71">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="2"/>
+        <v>0.32549999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C120" s="71">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D120" s="71">
+        <v>38</v>
+      </c>
+      <c r="E120" s="71">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F120" s="71">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="G120" s="71">
+        <v>38</v>
+      </c>
+      <c r="H120" s="71">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="2"/>
+        <v>0.35339999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C121" s="71">
+        <v>0.496</v>
+      </c>
+      <c r="D121" s="71">
+        <v>43</v>
+      </c>
+      <c r="E121" s="71">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F121" s="71">
+        <v>0.435</v>
+      </c>
+      <c r="G121" s="71">
+        <v>43</v>
+      </c>
+      <c r="H121" s="71">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="2"/>
+        <v>0.39989999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C122" s="71">
+        <v>0.501</v>
+      </c>
+      <c r="D122" s="71">
+        <v>45</v>
+      </c>
+      <c r="E122" s="71">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F122" s="71">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="G122" s="71">
+        <v>45</v>
+      </c>
+      <c r="H122" s="71">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="2"/>
+        <v>0.41849999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C123" s="71">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D123" s="71">
+        <v>55</v>
+      </c>
+      <c r="E123" s="71">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F123" s="71">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G123" s="71">
+        <v>55</v>
+      </c>
+      <c r="H123" s="71">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C125" s="71">
+        <v>1.6659999999999999</v>
+      </c>
+      <c r="D125" s="71">
+        <v>25.856999999999999</v>
+      </c>
+      <c r="E125" s="71">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="F125" s="71">
+        <v>1.2</v>
+      </c>
+      <c r="G125" s="71">
+        <v>15.1</v>
+      </c>
+      <c r="H125" s="71">
+        <f>F125*0.13</f>
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C126" s="71">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="D126" s="71">
+        <v>28.872</v>
+      </c>
+      <c r="E126" s="71">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F126" s="71">
+        <v>1.4</v>
+      </c>
+      <c r="G126" s="71">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H126" s="71">
+        <f t="shared" ref="H126:H129" si="3">F126*0.13</f>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C127" s="71">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D127" s="71">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E127" s="71">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F127" s="71">
+        <v>1.6</v>
+      </c>
+      <c r="G127" s="71">
+        <v>22.2</v>
+      </c>
+      <c r="H127" s="71">
+        <f t="shared" si="3"/>
+        <v>0.20800000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C128" s="71">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D128" s="71">
+        <v>22.1</v>
+      </c>
+      <c r="E128" s="71">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F128" s="71">
+        <v>1.7</v>
+      </c>
+      <c r="G128" s="71">
+        <v>25.1</v>
+      </c>
+      <c r="H128" s="71">
+        <f t="shared" si="3"/>
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C129" s="71">
+        <v>0.68</v>
+      </c>
+      <c r="D129" s="71">
+        <v>22.109000000000002</v>
+      </c>
+      <c r="E129" s="71">
+        <v>0.248</v>
+      </c>
+      <c r="F129" s="71">
+        <v>1.9</v>
+      </c>
+      <c r="G129" s="71">
+        <v>30.2</v>
+      </c>
+      <c r="H129" s="71">
+        <f t="shared" si="3"/>
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="71"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C67:E73">
+  <sortState ref="C67:E73">
     <sortCondition ref="D67:D73"/>
   </sortState>
   <mergeCells count="5">
@@ -3040,22 +3400,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.3828125" customWidth="1"/>
-    <col min="3" max="3" width="16.3046875" customWidth="1"/>
-    <col min="4" max="4" width="21.3828125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>42</v>
       </c>
@@ -3078,7 +3438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="79"/>
       <c r="B2" s="79"/>
       <c r="C2" s="75">
@@ -3097,7 +3457,7 @@
         <v>33.56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="80"/>
       <c r="B3" s="53"/>
       <c r="C3" s="75">
@@ -3116,7 +3476,7 @@
         <v>32.89</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="75">
@@ -3135,7 +3495,7 @@
         <v>33.56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="50">
         <v>3.4</v>
       </c>
